--- a/medicine/Psychotrope/Commanderie_du_Bontemps/Commanderie_du_Bontemps.xlsx
+++ b/medicine/Psychotrope/Commanderie_du_Bontemps/Commanderie_du_Bontemps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Commanderie du Bontemps de Médoc, Graves, Sauternes et Barsac est une confrérie bachique française située dans la région viticole de Bordeaux. Fondée au milieu du XXe siècle, elle a pour mission la promotion des vins des appellations Médoc, Graves, Sauternes et Barsac.
-La Commanderie du Bontemps de Médoc, Graves, Sauternes et Barsac, également connue sous le nom de Confrérie, est une institution historique et culturelle au cœur de la région viticole de Bordeaux[1]. Fondée peu après la Seconde Guerre mondiale, la Commanderie perpétue des traditions séculaires, tout en jouant un rôle essentiel dans la promotion des vins de Bordeaux à l'échelle mondiale[2].
+La Commanderie du Bontemps de Médoc, Graves, Sauternes et Barsac, également connue sous le nom de Confrérie, est une institution historique et culturelle au cœur de la région viticole de Bordeaux. Fondée peu après la Seconde Guerre mondiale, la Commanderie perpétue des traditions séculaires, tout en jouant un rôle essentiel dans la promotion des vins de Bordeaux à l'échelle mondiale.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les origines de la Commanderie remontent au Moyen Âge, avec la fondation d'une commanderie religieuse près de Saint-Laurent-Médoc. La culture de la vigne était alors la principale ressource des moines.
-La structure moderne de la Commanderie a été établie peu après la Seconde Guerre mondiale en 1949, sous l'impulsion de ses fondateurs dont Henri Martin, Édouard Marjary, Jean Bouteiller, Armand Achille-Fould, Roger Dourthe, Bertrand Clauzel, Jean Theil et Raymond Brard[3].
+La structure moderne de la Commanderie a été établie peu après la Seconde Guerre mondiale en 1949, sous l'impulsion de ses fondateurs dont Henri Martin, Édouard Marjary, Jean Bouteiller, Armand Achille-Fould, Roger Dourthe, Bertrand Clauzel, Jean Theil et Raymond Brard.
 En 1959 ont lieu la fusion des commanderies du Médoc et des Graves et la création de la Commanderie du Bontemps de Sauternes et Barsac. Puis en 2000, avec la fusion des Commanderies du Bontemps de Médoc, Graves et de Sauternes et Barsac, elle forme une entité unie.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Symboles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bontemps : Un objet mythique inventé, selon la tradition, par Jean-Odule Paulin d’Esquet au neuvième siècle, utilisé pour la clarification du vin.
 La Fibule : Emblème de la Commanderie, cette fibule orne la robe de tous les Commandeurs et porte les initiales de l'ordre.
@@ -577,7 +593,9 @@
           <t>Grands-Maîtres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1950, plusieurs personnalités se sont succédé à la tête de la Commanderie. Le grand maître actuel est Emmanuel Cruse depuis 2008.
 </t>
@@ -608,27 +626,98 @@
           <t>Intronisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour devenir Commandeur, il faut être présenté par deux parrains membres de la Commanderie. Les intronisations ont lieu à la fête de la Saint-Vincent[4] et à la fête de la fleur. L'intronisé reçoit alors les insignes de la Commanderie et un certificat.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour devenir Commandeur, il faut être présenté par deux parrains membres de la Commanderie. Les intronisations ont lieu à la fête de la Saint-Vincent et à la fête de la fleur. L'intronisé reçoit alors les insignes de la Commanderie et un certificat.
 Deux cent commandeurs d'Honneur de différentes nationalités sont intronisés chaque année. Ces nouveaux membres, parrainés par des Commandeurs titulaires, deviennent des ambassadeurs des vins de la région. Ses membres et intronisés incluent des personnalités du monde du vin, de la culture, des affaires, de la haute fonction publique ainsi que des diplomates étrangers.
-Quelques membres de la confrérie[5]
-Acteurs et actrices : Hugh Grant[6], Jackie Chan, Jean Reno, Bourvil, Sophie Marceau, Christophe Lambert, Pierre Arditi, Catherine Deneuve, Jeanne Moreau, Charlotte Rampling, Dominique Lavanant, Jean Rochefort, Lino Ventura, Gina Lollobrigida, Maurice Chevalier, Michèle Morgan, Carole Bouquet, Anna Mouglalis, José Garcia, Alex Lutz, Stéphane De Groodt, Pierre Richard, Michel Serrault, Guy Marchand, Michel Le Royer, Jean Marais, Jerry Lewis, Ugo Tognazzi, Jean Poiret, Macha Méril, Corinne Touzet, Bob Hope
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Commanderie_du_Bontemps</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Commanderie_du_Bontemps</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Intronisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Quelques membres de la confrérie[5]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Acteurs et actrices : Hugh Grant, Jackie Chan, Jean Reno, Bourvil, Sophie Marceau, Christophe Lambert, Pierre Arditi, Catherine Deneuve, Jeanne Moreau, Charlotte Rampling, Dominique Lavanant, Jean Rochefort, Lino Ventura, Gina Lollobrigida, Maurice Chevalier, Michèle Morgan, Carole Bouquet, Anna Mouglalis, José Garcia, Alex Lutz, Stéphane De Groodt, Pierre Richard, Michel Serrault, Guy Marchand, Michel Le Royer, Jean Marais, Jerry Lewis, Ugo Tognazzi, Jean Poiret, Macha Méril, Corinne Touzet, Bob Hope
 Artistes et créateurs : Henri Martin[Lequel ?], le sculpteur César, Line Renaud, Coco Chanel
 Écrivains : Douglas Kennedy, René Barjavel, Maurice Druon, Bernard Pivot
 Cinéma : Jean-Jacques Annaud, Bertrand Tavernier, Claude Chabrol
 Musique : Charles Aznavour, Ève Ruggieri, Placido Domingo, Barbara Hendricks, Stéphane Eicher, Sylvie Vartan, Les Blues Brothers, Michel Blanc, Jean-Michel Jarre, Julien Clerc, Rostropovitch, Gilbert Montagné, Antoine (chanteur), Rika Zaraï, Luis Mariano, Jacques Hélian, Steve Barakatt
 Vin et gastronomie : Yannick Alléno, Olivier Roellinger, Henri Gault et Christian Millau, Jean-Paul Jauffret
 Sport : Baptiste Serin, Michel Desjoyeaux, Jean-Pierre Papin, Jean-Claude Killy, Serge Blanco, Alain Mimoun, Philippe Jeantot, Eric Tabarly, Titouan Lamazou, Jean Borotra, Bernard Hinault, Patrick Dupond
-Politique : Simone Veil, Vincent Auriol[4], Raymond Barre, François Mauriac, Jean-Pierre Raffarin, Alain Juppé, Hervé Gaymard, Jacques Chaban-Delmas
+Politique : Simone Veil, Vincent Auriol, Raymond Barre, François Mauriac, Jean-Pierre Raffarin, Alain Juppé, Hervé Gaymard, Jacques Chaban-Delmas
 Affaires : Alain Boucheron, Martin Bouygues, David Rockefeller
 Télévision : Patrick Poivre d'Arvor, Stéphane Bern, Bernard Montiel, Mireille Dumas, Frédéric Mitterrand, Michel Drucker, Adriana Karembeu, Pierre Tchernia
-Aristocratie : Charles III d'Angleterre[4], Albert de Monaco[4] Prince Alain Michel de Habsbourg, Prince Charles Emmanuel de Bourbon Parme, Prince Emmanuel Philibert de Savoie, Prince Edward d'Angleterre, Duchesse d'York, Albert II (roi des Belges), Maradjhad de Jaipur
+Aristocratie : Charles III d'Angleterre, Albert de Monaco Prince Alain Michel de Habsbourg, Prince Charles Emmanuel de Bourbon Parme, Prince Emmanuel Philibert de Savoie, Prince Edward d'Angleterre, Duchesse d'York, Albert II (roi des Belges), Maradjhad de Jaipur
 Science et médecine : Alexander Fleming, Christian Cabrol
 Armées : Alphonse Juin, Charles R. Codman (en)
-Explorateurs : Patrick Baudry, Aleksei Leonov, Maurice Herzog, Jacqueline Auriol
-Cérémonies
-D'autres événements[12] sont organisés par la Commanderie, à Paris[16] et à l'étranger.
+Explorateurs : Patrick Baudry, Aleksei Leonov, Maurice Herzog, Jacqueline Auriol</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Commanderie_du_Bontemps</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Commanderie_du_Bontemps</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Intronisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cérémonies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'autres événements sont organisés par la Commanderie, à Paris et à l'étranger.
 </t>
         </is>
       </c>
